--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_142.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_142.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d8019374-Reviews-Courtyard_Anaheim_Theme_Park_Entrance-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>671</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-Anaheim-Theme-Park-Entrance.h11476917.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_142.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_142.xlsx
@@ -9630,7 +9630,7 @@
         <v>63765</v>
       </c>
       <c r="B3" t="n">
-        <v>131959</v>
+        <v>162745</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -9691,7 +9691,7 @@
         <v>63765</v>
       </c>
       <c r="B4" t="n">
-        <v>131960</v>
+        <v>162746</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -9756,7 +9756,7 @@
         <v>63765</v>
       </c>
       <c r="B5" t="n">
-        <v>131961</v>
+        <v>162747</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -9947,7 +9947,7 @@
         <v>63765</v>
       </c>
       <c r="B8" t="n">
-        <v>131962</v>
+        <v>162748</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -10008,7 +10008,7 @@
         <v>63765</v>
       </c>
       <c r="B9" t="n">
-        <v>131963</v>
+        <v>162749</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -10140,7 +10140,7 @@
         <v>63765</v>
       </c>
       <c r="B11" t="n">
-        <v>131964</v>
+        <v>162750</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
@@ -10205,7 +10205,7 @@
         <v>63765</v>
       </c>
       <c r="B12" t="n">
-        <v>131965</v>
+        <v>162751</v>
       </c>
       <c r="C12" t="s">
         <v>128</v>
@@ -10274,7 +10274,7 @@
         <v>63765</v>
       </c>
       <c r="B13" t="n">
-        <v>131966</v>
+        <v>162752</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
@@ -10343,7 +10343,7 @@
         <v>63765</v>
       </c>
       <c r="B14" t="n">
-        <v>131967</v>
+        <v>162753</v>
       </c>
       <c r="C14" t="s">
         <v>146</v>
@@ -10408,7 +10408,7 @@
         <v>63765</v>
       </c>
       <c r="B15" t="n">
-        <v>131968</v>
+        <v>162754</v>
       </c>
       <c r="C15" t="s">
         <v>154</v>
@@ -10477,7 +10477,7 @@
         <v>63765</v>
       </c>
       <c r="B16" t="n">
-        <v>131969</v>
+        <v>162755</v>
       </c>
       <c r="C16" t="s">
         <v>163</v>
@@ -10542,7 +10542,7 @@
         <v>63765</v>
       </c>
       <c r="B17" t="n">
-        <v>131970</v>
+        <v>162756</v>
       </c>
       <c r="C17" t="s">
         <v>170</v>
@@ -10607,7 +10607,7 @@
         <v>63765</v>
       </c>
       <c r="B18" t="n">
-        <v>131971</v>
+        <v>162757</v>
       </c>
       <c r="C18" t="s">
         <v>179</v>
@@ -10668,7 +10668,7 @@
         <v>63765</v>
       </c>
       <c r="B19" t="n">
-        <v>131972</v>
+        <v>162758</v>
       </c>
       <c r="C19" t="s">
         <v>186</v>
@@ -10739,7 +10739,7 @@
         <v>63765</v>
       </c>
       <c r="B20" t="n">
-        <v>131973</v>
+        <v>162759</v>
       </c>
       <c r="C20" t="s">
         <v>195</v>
@@ -10810,7 +10810,7 @@
         <v>63765</v>
       </c>
       <c r="B21" t="n">
-        <v>131974</v>
+        <v>162760</v>
       </c>
       <c r="C21" t="s">
         <v>205</v>
@@ -10871,7 +10871,7 @@
         <v>63765</v>
       </c>
       <c r="B22" t="n">
-        <v>131975</v>
+        <v>162761</v>
       </c>
       <c r="C22" t="s">
         <v>211</v>
@@ -10936,7 +10936,7 @@
         <v>63765</v>
       </c>
       <c r="B23" t="n">
-        <v>131976</v>
+        <v>162762</v>
       </c>
       <c r="C23" t="s">
         <v>220</v>
@@ -11001,7 +11001,7 @@
         <v>63765</v>
       </c>
       <c r="B24" t="n">
-        <v>131977</v>
+        <v>162763</v>
       </c>
       <c r="C24" t="s">
         <v>229</v>
@@ -11068,7 +11068,7 @@
         <v>63765</v>
       </c>
       <c r="B25" t="n">
-        <v>131978</v>
+        <v>162764</v>
       </c>
       <c r="C25" t="s">
         <v>235</v>
@@ -11139,7 +11139,7 @@
         <v>63765</v>
       </c>
       <c r="B26" t="n">
-        <v>131979</v>
+        <v>162765</v>
       </c>
       <c r="C26" t="s">
         <v>245</v>
@@ -11206,7 +11206,7 @@
         <v>63765</v>
       </c>
       <c r="B27" t="n">
-        <v>131980</v>
+        <v>162766</v>
       </c>
       <c r="C27" t="s">
         <v>253</v>
@@ -11397,7 +11397,7 @@
         <v>63765</v>
       </c>
       <c r="B30" t="n">
-        <v>131981</v>
+        <v>162767</v>
       </c>
       <c r="C30" t="s">
         <v>277</v>
@@ -11462,7 +11462,7 @@
         <v>63765</v>
       </c>
       <c r="B31" t="n">
-        <v>131982</v>
+        <v>162768</v>
       </c>
       <c r="C31" t="s">
         <v>286</v>
@@ -11523,7 +11523,7 @@
         <v>63765</v>
       </c>
       <c r="B32" t="n">
-        <v>131983</v>
+        <v>162769</v>
       </c>
       <c r="C32" t="s">
         <v>293</v>
@@ -11592,7 +11592,7 @@
         <v>63765</v>
       </c>
       <c r="B33" t="n">
-        <v>131984</v>
+        <v>131988</v>
       </c>
       <c r="C33" t="s">
         <v>302</v>
@@ -11653,7 +11653,7 @@
         <v>63765</v>
       </c>
       <c r="B34" t="n">
-        <v>131985</v>
+        <v>162770</v>
       </c>
       <c r="C34" t="s">
         <v>310</v>
@@ -11724,7 +11724,7 @@
         <v>63765</v>
       </c>
       <c r="B35" t="n">
-        <v>131986</v>
+        <v>162771</v>
       </c>
       <c r="C35" t="s">
         <v>319</v>
@@ -11781,7 +11781,7 @@
         <v>63765</v>
       </c>
       <c r="B36" t="n">
-        <v>131987</v>
+        <v>162772</v>
       </c>
       <c r="C36" t="s">
         <v>325</v>
@@ -11842,7 +11842,7 @@
         <v>63765</v>
       </c>
       <c r="B37" t="n">
-        <v>131988</v>
+        <v>162773</v>
       </c>
       <c r="C37" t="s">
         <v>334</v>
@@ -11978,7 +11978,7 @@
         <v>63765</v>
       </c>
       <c r="B39" t="n">
-        <v>131989</v>
+        <v>131977</v>
       </c>
       <c r="C39" t="s">
         <v>348</v>
@@ -12179,7 +12179,7 @@
         <v>63765</v>
       </c>
       <c r="B42" t="n">
-        <v>131990</v>
+        <v>162774</v>
       </c>
       <c r="C42" t="s">
         <v>373</v>
@@ -12246,7 +12246,7 @@
         <v>63765</v>
       </c>
       <c r="B43" t="n">
-        <v>131991</v>
+        <v>162775</v>
       </c>
       <c r="C43" t="s">
         <v>380</v>
@@ -12315,7 +12315,7 @@
         <v>63765</v>
       </c>
       <c r="B44" t="n">
-        <v>131992</v>
+        <v>162776</v>
       </c>
       <c r="C44" t="s">
         <v>389</v>
@@ -12376,7 +12376,7 @@
         <v>63765</v>
       </c>
       <c r="B45" t="n">
-        <v>131993</v>
+        <v>162777</v>
       </c>
       <c r="C45" t="s">
         <v>395</v>
@@ -12447,7 +12447,7 @@
         <v>63765</v>
       </c>
       <c r="B46" t="n">
-        <v>131994</v>
+        <v>162778</v>
       </c>
       <c r="C46" t="s">
         <v>403</v>
@@ -12514,7 +12514,7 @@
         <v>63765</v>
       </c>
       <c r="B47" t="n">
-        <v>131995</v>
+        <v>162779</v>
       </c>
       <c r="C47" t="s">
         <v>409</v>
@@ -12650,7 +12650,7 @@
         <v>63765</v>
       </c>
       <c r="B49" t="n">
-        <v>131996</v>
+        <v>162780</v>
       </c>
       <c r="C49" t="s">
         <v>427</v>
@@ -12711,7 +12711,7 @@
         <v>63765</v>
       </c>
       <c r="B50" t="n">
-        <v>131997</v>
+        <v>162781</v>
       </c>
       <c r="C50" t="s">
         <v>436</v>
@@ -12772,7 +12772,7 @@
         <v>63765</v>
       </c>
       <c r="B51" t="n">
-        <v>131998</v>
+        <v>162782</v>
       </c>
       <c r="C51" t="s">
         <v>443</v>
@@ -12837,7 +12837,7 @@
         <v>63765</v>
       </c>
       <c r="B52" t="n">
-        <v>131999</v>
+        <v>162783</v>
       </c>
       <c r="C52" t="s">
         <v>450</v>
@@ -12908,7 +12908,7 @@
         <v>63765</v>
       </c>
       <c r="B53" t="n">
-        <v>132000</v>
+        <v>162784</v>
       </c>
       <c r="C53" t="s">
         <v>458</v>
@@ -13034,7 +13034,7 @@
         <v>63765</v>
       </c>
       <c r="B55" t="n">
-        <v>132001</v>
+        <v>162785</v>
       </c>
       <c r="C55" t="s">
         <v>473</v>
@@ -13160,7 +13160,7 @@
         <v>63765</v>
       </c>
       <c r="B57" t="n">
-        <v>132002</v>
+        <v>162786</v>
       </c>
       <c r="C57" t="s">
         <v>489</v>
@@ -13225,7 +13225,7 @@
         <v>63765</v>
       </c>
       <c r="B58" t="n">
-        <v>132003</v>
+        <v>162787</v>
       </c>
       <c r="C58" t="s">
         <v>498</v>
@@ -13294,7 +13294,7 @@
         <v>63765</v>
       </c>
       <c r="B59" t="n">
-        <v>132004</v>
+        <v>162788</v>
       </c>
       <c r="C59" t="s">
         <v>505</v>
@@ -13359,7 +13359,7 @@
         <v>63765</v>
       </c>
       <c r="B60" t="n">
-        <v>132005</v>
+        <v>162789</v>
       </c>
       <c r="C60" t="s">
         <v>512</v>
@@ -13491,7 +13491,7 @@
         <v>63765</v>
       </c>
       <c r="B62" t="n">
-        <v>132006</v>
+        <v>162790</v>
       </c>
       <c r="C62" t="s">
         <v>528</v>
@@ -13560,7 +13560,7 @@
         <v>63765</v>
       </c>
       <c r="B63" t="n">
-        <v>132007</v>
+        <v>162791</v>
       </c>
       <c r="C63" t="s">
         <v>537</v>
@@ -13763,7 +13763,7 @@
         <v>63765</v>
       </c>
       <c r="B66" t="n">
-        <v>132008</v>
+        <v>162792</v>
       </c>
       <c r="C66" t="s">
         <v>561</v>
@@ -13828,7 +13828,7 @@
         <v>63765</v>
       </c>
       <c r="B67" t="n">
-        <v>132009</v>
+        <v>162793</v>
       </c>
       <c r="C67" t="s">
         <v>570</v>
@@ -13899,7 +13899,7 @@
         <v>63765</v>
       </c>
       <c r="B68" t="n">
-        <v>132010</v>
+        <v>162794</v>
       </c>
       <c r="C68" t="s">
         <v>580</v>
@@ -14031,7 +14031,7 @@
         <v>63765</v>
       </c>
       <c r="B70" t="n">
-        <v>132011</v>
+        <v>162795</v>
       </c>
       <c r="C70" t="s">
         <v>596</v>
@@ -14167,7 +14167,7 @@
         <v>63765</v>
       </c>
       <c r="B72" t="n">
-        <v>132012</v>
+        <v>162796</v>
       </c>
       <c r="C72" t="s">
         <v>612</v>
@@ -14293,7 +14293,7 @@
         <v>63765</v>
       </c>
       <c r="B74" t="n">
-        <v>132013</v>
+        <v>162797</v>
       </c>
       <c r="C74" t="s">
         <v>626</v>
@@ -14358,7 +14358,7 @@
         <v>63765</v>
       </c>
       <c r="B75" t="n">
-        <v>132014</v>
+        <v>162798</v>
       </c>
       <c r="C75" t="s">
         <v>635</v>
@@ -14419,7 +14419,7 @@
         <v>63765</v>
       </c>
       <c r="B76" t="n">
-        <v>132015</v>
+        <v>132042</v>
       </c>
       <c r="C76" t="s">
         <v>640</v>
@@ -14557,7 +14557,7 @@
         <v>63765</v>
       </c>
       <c r="B78" t="n">
-        <v>132016</v>
+        <v>162799</v>
       </c>
       <c r="C78" t="s">
         <v>652</v>
@@ -14622,7 +14622,7 @@
         <v>63765</v>
       </c>
       <c r="B79" t="n">
-        <v>132017</v>
+        <v>162800</v>
       </c>
       <c r="C79" t="s">
         <v>661</v>
@@ -14683,7 +14683,7 @@
         <v>63765</v>
       </c>
       <c r="B80" t="n">
-        <v>132018</v>
+        <v>162801</v>
       </c>
       <c r="C80" t="s">
         <v>667</v>
@@ -14748,7 +14748,7 @@
         <v>63765</v>
       </c>
       <c r="B81" t="n">
-        <v>132019</v>
+        <v>162802</v>
       </c>
       <c r="C81" t="s">
         <v>677</v>
@@ -14813,7 +14813,7 @@
         <v>63765</v>
       </c>
       <c r="B82" t="n">
-        <v>132020</v>
+        <v>162803</v>
       </c>
       <c r="C82" t="s">
         <v>684</v>
@@ -14878,7 +14878,7 @@
         <v>63765</v>
       </c>
       <c r="B83" t="n">
-        <v>132021</v>
+        <v>162804</v>
       </c>
       <c r="C83" t="s">
         <v>693</v>
@@ -14943,7 +14943,7 @@
         <v>63765</v>
       </c>
       <c r="B84" t="n">
-        <v>132022</v>
+        <v>162805</v>
       </c>
       <c r="C84" t="s">
         <v>702</v>
@@ -15012,7 +15012,7 @@
         <v>63765</v>
       </c>
       <c r="B85" t="n">
-        <v>132023</v>
+        <v>162806</v>
       </c>
       <c r="C85" t="s">
         <v>711</v>
@@ -15077,7 +15077,7 @@
         <v>63765</v>
       </c>
       <c r="B86" t="n">
-        <v>132024</v>
+        <v>162807</v>
       </c>
       <c r="C86" t="s">
         <v>720</v>
@@ -15148,7 +15148,7 @@
         <v>63765</v>
       </c>
       <c r="B87" t="n">
-        <v>131988</v>
+        <v>131977</v>
       </c>
       <c r="C87" t="s">
         <v>348</v>
@@ -15213,7 +15213,7 @@
         <v>63765</v>
       </c>
       <c r="B88" t="n">
-        <v>132025</v>
+        <v>162808</v>
       </c>
       <c r="C88" t="s">
         <v>737</v>
@@ -15278,7 +15278,7 @@
         <v>63765</v>
       </c>
       <c r="B89" t="n">
-        <v>132026</v>
+        <v>162809</v>
       </c>
       <c r="C89" t="s">
         <v>746</v>
@@ -15339,7 +15339,7 @@
         <v>63765</v>
       </c>
       <c r="B90" t="n">
-        <v>132027</v>
+        <v>162810</v>
       </c>
       <c r="C90" t="s">
         <v>753</v>
@@ -15404,7 +15404,7 @@
         <v>63765</v>
       </c>
       <c r="B91" t="n">
-        <v>132028</v>
+        <v>162811</v>
       </c>
       <c r="C91" t="s">
         <v>761</v>
@@ -15465,7 +15465,7 @@
         <v>63765</v>
       </c>
       <c r="B92" t="n">
-        <v>132029</v>
+        <v>162812</v>
       </c>
       <c r="C92" t="s">
         <v>768</v>
@@ -15534,7 +15534,7 @@
         <v>63765</v>
       </c>
       <c r="B93" t="n">
-        <v>132030</v>
+        <v>162813</v>
       </c>
       <c r="C93" t="s">
         <v>777</v>
@@ -15660,7 +15660,7 @@
         <v>63765</v>
       </c>
       <c r="B95" t="n">
-        <v>132031</v>
+        <v>162814</v>
       </c>
       <c r="C95" t="s">
         <v>787</v>
@@ -15729,7 +15729,7 @@
         <v>63765</v>
       </c>
       <c r="B96" t="n">
-        <v>132032</v>
+        <v>162815</v>
       </c>
       <c r="C96" t="s">
         <v>796</v>
@@ -15794,7 +15794,7 @@
         <v>63765</v>
       </c>
       <c r="B97" t="n">
-        <v>132033</v>
+        <v>162816</v>
       </c>
       <c r="C97" t="s">
         <v>804</v>
@@ -15859,7 +15859,7 @@
         <v>63765</v>
       </c>
       <c r="B98" t="n">
-        <v>132034</v>
+        <v>162817</v>
       </c>
       <c r="C98" t="s">
         <v>812</v>
@@ -16060,7 +16060,7 @@
         <v>63765</v>
       </c>
       <c r="B101" t="n">
-        <v>132035</v>
+        <v>162818</v>
       </c>
       <c r="C101" t="s">
         <v>836</v>
@@ -16324,7 +16324,7 @@
         <v>63765</v>
       </c>
       <c r="B105" t="n">
-        <v>132036</v>
+        <v>162819</v>
       </c>
       <c r="C105" t="s">
         <v>870</v>
@@ -16385,7 +16385,7 @@
         <v>63765</v>
       </c>
       <c r="B106" t="n">
-        <v>132037</v>
+        <v>162820</v>
       </c>
       <c r="C106" t="s">
         <v>876</v>
@@ -16511,7 +16511,7 @@
         <v>63765</v>
       </c>
       <c r="B108" t="n">
-        <v>132038</v>
+        <v>162821</v>
       </c>
       <c r="C108" t="s">
         <v>891</v>
@@ -16572,7 +16572,7 @@
         <v>63765</v>
       </c>
       <c r="B109" t="n">
-        <v>132039</v>
+        <v>162822</v>
       </c>
       <c r="C109" t="s">
         <v>899</v>
@@ -16639,7 +16639,7 @@
         <v>63765</v>
       </c>
       <c r="B110" t="n">
-        <v>132040</v>
+        <v>162823</v>
       </c>
       <c r="C110" t="s">
         <v>906</v>
@@ -16696,7 +16696,7 @@
         <v>63765</v>
       </c>
       <c r="B111" t="n">
-        <v>132041</v>
+        <v>162824</v>
       </c>
       <c r="C111" t="s">
         <v>913</v>
@@ -16765,7 +16765,7 @@
         <v>63765</v>
       </c>
       <c r="B112" t="n">
-        <v>132042</v>
+        <v>162825</v>
       </c>
       <c r="C112" t="s">
         <v>922</v>
@@ -16834,7 +16834,7 @@
         <v>63765</v>
       </c>
       <c r="B113" t="n">
-        <v>132043</v>
+        <v>162826</v>
       </c>
       <c r="C113" t="s">
         <v>931</v>
@@ -16901,7 +16901,7 @@
         <v>63765</v>
       </c>
       <c r="B114" t="n">
-        <v>132044</v>
+        <v>162827</v>
       </c>
       <c r="C114" t="s">
         <v>938</v>
@@ -17027,7 +17027,7 @@
         <v>63765</v>
       </c>
       <c r="B116" t="n">
-        <v>132045</v>
+        <v>162828</v>
       </c>
       <c r="C116" t="s">
         <v>953</v>
@@ -17098,7 +17098,7 @@
         <v>63765</v>
       </c>
       <c r="B117" t="n">
-        <v>132046</v>
+        <v>162829</v>
       </c>
       <c r="C117" t="s">
         <v>962</v>
@@ -17163,7 +17163,7 @@
         <v>63765</v>
       </c>
       <c r="B118" t="n">
-        <v>132047</v>
+        <v>162830</v>
       </c>
       <c r="C118" t="s">
         <v>968</v>
@@ -17234,7 +17234,7 @@
         <v>63765</v>
       </c>
       <c r="B119" t="n">
-        <v>132048</v>
+        <v>162831</v>
       </c>
       <c r="C119" t="s">
         <v>975</v>
@@ -17370,7 +17370,7 @@
         <v>63765</v>
       </c>
       <c r="B121" t="n">
-        <v>132049</v>
+        <v>162832</v>
       </c>
       <c r="C121" t="s">
         <v>990</v>
@@ -17431,7 +17431,7 @@
         <v>63765</v>
       </c>
       <c r="B122" t="n">
-        <v>132050</v>
+        <v>162833</v>
       </c>
       <c r="C122" t="s">
         <v>997</v>
@@ -17500,7 +17500,7 @@
         <v>63765</v>
       </c>
       <c r="B123" t="n">
-        <v>132051</v>
+        <v>162834</v>
       </c>
       <c r="C123" t="s">
         <v>1006</v>
@@ -17571,7 +17571,7 @@
         <v>63765</v>
       </c>
       <c r="B124" t="n">
-        <v>132052</v>
+        <v>162835</v>
       </c>
       <c r="C124" t="s">
         <v>1015</v>
@@ -17640,7 +17640,7 @@
         <v>63765</v>
       </c>
       <c r="B125" t="n">
-        <v>132053</v>
+        <v>162836</v>
       </c>
       <c r="C125" t="s">
         <v>1021</v>
@@ -17705,7 +17705,7 @@
         <v>63765</v>
       </c>
       <c r="B126" t="n">
-        <v>132054</v>
+        <v>162837</v>
       </c>
       <c r="C126" t="s">
         <v>1030</v>
@@ -17770,7 +17770,7 @@
         <v>63765</v>
       </c>
       <c r="B127" t="n">
-        <v>132055</v>
+        <v>162838</v>
       </c>
       <c r="C127" t="s">
         <v>1036</v>
@@ -17835,7 +17835,7 @@
         <v>63765</v>
       </c>
       <c r="B128" t="n">
-        <v>132056</v>
+        <v>162839</v>
       </c>
       <c r="C128" t="s">
         <v>1045</v>
@@ -17900,7 +17900,7 @@
         <v>63765</v>
       </c>
       <c r="B129" t="n">
-        <v>132057</v>
+        <v>162840</v>
       </c>
       <c r="C129" t="s">
         <v>1054</v>
@@ -17969,7 +17969,7 @@
         <v>63765</v>
       </c>
       <c r="B130" t="n">
-        <v>132058</v>
+        <v>162841</v>
       </c>
       <c r="C130" t="s">
         <v>1064</v>
@@ -18038,7 +18038,7 @@
         <v>63765</v>
       </c>
       <c r="B131" t="n">
-        <v>132059</v>
+        <v>162842</v>
       </c>
       <c r="C131" t="s">
         <v>1070</v>
@@ -18109,7 +18109,7 @@
         <v>63765</v>
       </c>
       <c r="B132" t="n">
-        <v>132060</v>
+        <v>162843</v>
       </c>
       <c r="C132" t="s">
         <v>1080</v>
@@ -18174,7 +18174,7 @@
         <v>63765</v>
       </c>
       <c r="B133" t="n">
-        <v>132061</v>
+        <v>162844</v>
       </c>
       <c r="C133" t="s">
         <v>1090</v>
@@ -18306,7 +18306,7 @@
         <v>63765</v>
       </c>
       <c r="B135" t="n">
-        <v>132062</v>
+        <v>162845</v>
       </c>
       <c r="C135" t="s">
         <v>1108</v>
@@ -18367,7 +18367,7 @@
         <v>63765</v>
       </c>
       <c r="B136" t="n">
-        <v>132063</v>
+        <v>162846</v>
       </c>
       <c r="C136" t="s">
         <v>1117</v>
@@ -18438,7 +18438,7 @@
         <v>63765</v>
       </c>
       <c r="B137" t="n">
-        <v>132064</v>
+        <v>162847</v>
       </c>
       <c r="C137" t="s">
         <v>1126</v>
@@ -18509,7 +18509,7 @@
         <v>63765</v>
       </c>
       <c r="B138" t="n">
-        <v>132065</v>
+        <v>162848</v>
       </c>
       <c r="C138" t="s">
         <v>1135</v>
@@ -18574,7 +18574,7 @@
         <v>63765</v>
       </c>
       <c r="B139" t="n">
-        <v>132066</v>
+        <v>162849</v>
       </c>
       <c r="C139" t="s">
         <v>1144</v>
@@ -18645,7 +18645,7 @@
         <v>63765</v>
       </c>
       <c r="B140" t="n">
-        <v>132067</v>
+        <v>162850</v>
       </c>
       <c r="C140" t="s">
         <v>1153</v>
@@ -18710,7 +18710,7 @@
         <v>63765</v>
       </c>
       <c r="B141" t="n">
-        <v>132068</v>
+        <v>162851</v>
       </c>
       <c r="C141" t="s">
         <v>1162</v>
@@ -18775,7 +18775,7 @@
         <v>63765</v>
       </c>
       <c r="B142" t="n">
-        <v>132069</v>
+        <v>162852</v>
       </c>
       <c r="C142" t="s">
         <v>1168</v>
@@ -18844,7 +18844,7 @@
         <v>63765</v>
       </c>
       <c r="B143" t="n">
-        <v>131983</v>
+        <v>131988</v>
       </c>
       <c r="C143" t="s">
         <v>302</v>
@@ -18978,7 +18978,7 @@
         <v>63765</v>
       </c>
       <c r="B145" t="n">
-        <v>132070</v>
+        <v>162853</v>
       </c>
       <c r="C145" t="s">
         <v>1190</v>
@@ -19108,7 +19108,7 @@
         <v>63765</v>
       </c>
       <c r="B147" t="n">
-        <v>132071</v>
+        <v>162854</v>
       </c>
       <c r="C147" t="s">
         <v>1204</v>
@@ -19179,7 +19179,7 @@
         <v>63765</v>
       </c>
       <c r="B148" t="n">
-        <v>132072</v>
+        <v>162855</v>
       </c>
       <c r="C148" t="s">
         <v>1211</v>
@@ -19244,7 +19244,7 @@
         <v>63765</v>
       </c>
       <c r="B149" t="n">
-        <v>132073</v>
+        <v>162856</v>
       </c>
       <c r="C149" t="s">
         <v>1218</v>
@@ -19313,7 +19313,7 @@
         <v>63765</v>
       </c>
       <c r="B150" t="n">
-        <v>132074</v>
+        <v>162857</v>
       </c>
       <c r="C150" t="s">
         <v>1225</v>
@@ -19449,7 +19449,7 @@
         <v>63765</v>
       </c>
       <c r="B152" t="n">
-        <v>132075</v>
+        <v>162858</v>
       </c>
       <c r="C152" t="s">
         <v>1239</v>
@@ -19520,7 +19520,7 @@
         <v>63765</v>
       </c>
       <c r="B153" t="n">
-        <v>132076</v>
+        <v>162859</v>
       </c>
       <c r="C153" t="s">
         <v>1246</v>
@@ -19587,7 +19587,7 @@
         <v>63765</v>
       </c>
       <c r="B154" t="n">
-        <v>132077</v>
+        <v>162860</v>
       </c>
       <c r="C154" t="s">
         <v>1253</v>
@@ -19648,7 +19648,7 @@
         <v>63765</v>
       </c>
       <c r="B155" t="n">
-        <v>132078</v>
+        <v>162861</v>
       </c>
       <c r="C155" t="s">
         <v>1260</v>
@@ -19709,7 +19709,7 @@
         <v>63765</v>
       </c>
       <c r="B156" t="n">
-        <v>132079</v>
+        <v>162862</v>
       </c>
       <c r="C156" t="s">
         <v>1266</v>
@@ -19770,7 +19770,7 @@
         <v>63765</v>
       </c>
       <c r="B157" t="n">
-        <v>132080</v>
+        <v>162863</v>
       </c>
       <c r="C157" t="s">
         <v>1273</v>
@@ -19831,7 +19831,7 @@
         <v>63765</v>
       </c>
       <c r="B158" t="n">
-        <v>132081</v>
+        <v>162864</v>
       </c>
       <c r="C158" t="s">
         <v>1279</v>
@@ -19898,7 +19898,7 @@
         <v>63765</v>
       </c>
       <c r="B159" t="n">
-        <v>132082</v>
+        <v>162865</v>
       </c>
       <c r="C159" t="s">
         <v>1286</v>
@@ -20026,7 +20026,7 @@
         <v>63765</v>
       </c>
       <c r="B161" t="n">
-        <v>132083</v>
+        <v>162866</v>
       </c>
       <c r="C161" t="s">
         <v>1300</v>
@@ -20152,7 +20152,7 @@
         <v>63765</v>
       </c>
       <c r="B163" t="n">
-        <v>132084</v>
+        <v>162867</v>
       </c>
       <c r="C163" t="s">
         <v>1313</v>
@@ -20345,7 +20345,7 @@
         <v>63765</v>
       </c>
       <c r="B166" t="n">
-        <v>132085</v>
+        <v>162868</v>
       </c>
       <c r="C166" t="s">
         <v>1333</v>
@@ -20406,7 +20406,7 @@
         <v>63765</v>
       </c>
       <c r="B167" t="n">
-        <v>132086</v>
+        <v>162869</v>
       </c>
       <c r="C167" t="s">
         <v>1340</v>
@@ -20473,7 +20473,7 @@
         <v>63765</v>
       </c>
       <c r="B168" t="n">
-        <v>132087</v>
+        <v>162870</v>
       </c>
       <c r="C168" t="s">
         <v>1347</v>
@@ -20601,7 +20601,7 @@
         <v>63765</v>
       </c>
       <c r="B170" t="n">
-        <v>132088</v>
+        <v>162871</v>
       </c>
       <c r="C170" t="s">
         <v>1359</v>
@@ -20662,7 +20662,7 @@
         <v>63765</v>
       </c>
       <c r="B171" t="n">
-        <v>132089</v>
+        <v>162872</v>
       </c>
       <c r="C171" t="s">
         <v>1366</v>
@@ -20796,7 +20796,7 @@
         <v>63765</v>
       </c>
       <c r="B173" t="n">
-        <v>132090</v>
+        <v>162873</v>
       </c>
       <c r="C173" t="s">
         <v>1380</v>
@@ -20867,7 +20867,7 @@
         <v>63765</v>
       </c>
       <c r="B174" t="n">
-        <v>132091</v>
+        <v>162874</v>
       </c>
       <c r="C174" t="s">
         <v>1389</v>
@@ -20928,7 +20928,7 @@
         <v>63765</v>
       </c>
       <c r="B175" t="n">
-        <v>132092</v>
+        <v>162875</v>
       </c>
       <c r="C175" t="s">
         <v>1396</v>
@@ -20995,7 +20995,7 @@
         <v>63765</v>
       </c>
       <c r="B176" t="n">
-        <v>132093</v>
+        <v>162876</v>
       </c>
       <c r="C176" t="s">
         <v>1402</v>
@@ -21125,7 +21125,7 @@
         <v>63765</v>
       </c>
       <c r="B178" t="n">
-        <v>132094</v>
+        <v>162877</v>
       </c>
       <c r="C178" t="s">
         <v>1417</v>
@@ -21192,7 +21192,7 @@
         <v>63765</v>
       </c>
       <c r="B179" t="n">
-        <v>132095</v>
+        <v>162878</v>
       </c>
       <c r="C179" t="s">
         <v>1424</v>
@@ -21253,7 +21253,7 @@
         <v>63765</v>
       </c>
       <c r="B180" t="n">
-        <v>132096</v>
+        <v>162879</v>
       </c>
       <c r="C180" t="s">
         <v>1431</v>
@@ -21314,7 +21314,7 @@
         <v>63765</v>
       </c>
       <c r="B181" t="n">
-        <v>132097</v>
+        <v>162880</v>
       </c>
       <c r="C181" t="s">
         <v>1437</v>
@@ -21440,7 +21440,7 @@
         <v>63765</v>
       </c>
       <c r="B183" t="n">
-        <v>132098</v>
+        <v>162881</v>
       </c>
       <c r="C183" t="s">
         <v>1452</v>
@@ -21507,7 +21507,7 @@
         <v>63765</v>
       </c>
       <c r="B184" t="n">
-        <v>132099</v>
+        <v>162882</v>
       </c>
       <c r="C184" t="s">
         <v>1458</v>
@@ -21635,7 +21635,7 @@
         <v>63765</v>
       </c>
       <c r="B186" t="n">
-        <v>132100</v>
+        <v>162883</v>
       </c>
       <c r="C186" t="s">
         <v>1471</v>
@@ -21702,7 +21702,7 @@
         <v>63765</v>
       </c>
       <c r="B187" t="n">
-        <v>132101</v>
+        <v>162884</v>
       </c>
       <c r="C187" t="s">
         <v>1477</v>
@@ -21767,7 +21767,7 @@
         <v>63765</v>
       </c>
       <c r="B188" t="n">
-        <v>132102</v>
+        <v>162885</v>
       </c>
       <c r="C188" t="s">
         <v>1486</v>
@@ -21828,7 +21828,7 @@
         <v>63765</v>
       </c>
       <c r="B189" t="n">
-        <v>132103</v>
+        <v>162886</v>
       </c>
       <c r="C189" t="s">
         <v>1493</v>
@@ -21885,7 +21885,7 @@
         <v>63765</v>
       </c>
       <c r="B190" t="n">
-        <v>132104</v>
+        <v>162887</v>
       </c>
       <c r="C190" t="s">
         <v>1498</v>
@@ -22011,7 +22011,7 @@
         <v>63765</v>
       </c>
       <c r="B192" t="n">
-        <v>132105</v>
+        <v>162888</v>
       </c>
       <c r="C192" t="s">
         <v>1510</v>
@@ -22072,7 +22072,7 @@
         <v>63765</v>
       </c>
       <c r="B193" t="n">
-        <v>132106</v>
+        <v>162889</v>
       </c>
       <c r="C193" t="s">
         <v>1516</v>
@@ -22261,7 +22261,7 @@
         <v>63765</v>
       </c>
       <c r="B196" t="n">
-        <v>132107</v>
+        <v>162890</v>
       </c>
       <c r="C196" t="s">
         <v>1534</v>
@@ -22389,7 +22389,7 @@
         <v>63765</v>
       </c>
       <c r="B198" t="n">
-        <v>132108</v>
+        <v>162891</v>
       </c>
       <c r="C198" t="s">
         <v>1546</v>
@@ -22460,7 +22460,7 @@
         <v>63765</v>
       </c>
       <c r="B199" t="n">
-        <v>132109</v>
+        <v>162892</v>
       </c>
       <c r="C199" t="s">
         <v>1555</v>
@@ -22521,7 +22521,7 @@
         <v>63765</v>
       </c>
       <c r="B200" t="n">
-        <v>132110</v>
+        <v>162893</v>
       </c>
       <c r="C200" t="s">
         <v>1562</v>
@@ -22590,7 +22590,7 @@
         <v>63765</v>
       </c>
       <c r="B201" t="n">
-        <v>132111</v>
+        <v>162894</v>
       </c>
       <c r="C201" t="s">
         <v>1571</v>
@@ -22651,7 +22651,7 @@
         <v>63765</v>
       </c>
       <c r="B202" t="n">
-        <v>132112</v>
+        <v>162895</v>
       </c>
       <c r="C202" t="s">
         <v>1577</v>
@@ -22773,7 +22773,7 @@
         <v>63765</v>
       </c>
       <c r="B204" t="n">
-        <v>132113</v>
+        <v>162896</v>
       </c>
       <c r="C204" t="s">
         <v>1590</v>
@@ -22834,7 +22834,7 @@
         <v>63765</v>
       </c>
       <c r="B205" t="n">
-        <v>132114</v>
+        <v>162897</v>
       </c>
       <c r="C205" t="s">
         <v>1595</v>
@@ -22899,7 +22899,7 @@
         <v>63765</v>
       </c>
       <c r="B206" t="n">
-        <v>132115</v>
+        <v>162898</v>
       </c>
       <c r="C206" t="s">
         <v>1602</v>
@@ -22960,7 +22960,7 @@
         <v>63765</v>
       </c>
       <c r="B207" t="n">
-        <v>132116</v>
+        <v>162899</v>
       </c>
       <c r="C207" t="s">
         <v>1609</v>
@@ -23027,7 +23027,7 @@
         <v>63765</v>
       </c>
       <c r="B208" t="n">
-        <v>132117</v>
+        <v>162900</v>
       </c>
       <c r="C208" t="s">
         <v>1616</v>
@@ -23096,7 +23096,7 @@
         <v>63765</v>
       </c>
       <c r="B209" t="n">
-        <v>132118</v>
+        <v>162901</v>
       </c>
       <c r="C209" t="s">
         <v>1625</v>
@@ -23165,7 +23165,7 @@
         <v>63765</v>
       </c>
       <c r="B210" t="n">
-        <v>132119</v>
+        <v>162902</v>
       </c>
       <c r="C210" t="s">
         <v>1634</v>
@@ -23232,7 +23232,7 @@
         <v>63765</v>
       </c>
       <c r="B211" t="n">
-        <v>132120</v>
+        <v>162903</v>
       </c>
       <c r="C211" t="s">
         <v>1640</v>
@@ -23293,7 +23293,7 @@
         <v>63765</v>
       </c>
       <c r="B212" t="n">
-        <v>132121</v>
+        <v>162904</v>
       </c>
       <c r="C212" t="s">
         <v>1646</v>
@@ -23354,7 +23354,7 @@
         <v>63765</v>
       </c>
       <c r="B213" t="n">
-        <v>132122</v>
+        <v>162905</v>
       </c>
       <c r="C213" t="s">
         <v>1653</v>
@@ -23486,7 +23486,7 @@
         <v>63765</v>
       </c>
       <c r="B215" t="n">
-        <v>132123</v>
+        <v>162906</v>
       </c>
       <c r="C215" t="s">
         <v>1664</v>
@@ -23553,7 +23553,7 @@
         <v>63765</v>
       </c>
       <c r="B216" t="n">
-        <v>132124</v>
+        <v>162907</v>
       </c>
       <c r="C216" t="s">
         <v>1671</v>
@@ -23618,7 +23618,7 @@
         <v>63765</v>
       </c>
       <c r="B217" t="n">
-        <v>132125</v>
+        <v>162908</v>
       </c>
       <c r="C217" t="s">
         <v>1676</v>
@@ -23679,7 +23679,7 @@
         <v>63765</v>
       </c>
       <c r="B218" t="n">
-        <v>132126</v>
+        <v>162909</v>
       </c>
       <c r="C218" t="s">
         <v>1682</v>
@@ -23811,7 +23811,7 @@
         <v>63765</v>
       </c>
       <c r="B220" t="n">
-        <v>132127</v>
+        <v>162910</v>
       </c>
       <c r="C220" t="s">
         <v>1695</v>
@@ -23868,7 +23868,7 @@
         <v>63765</v>
       </c>
       <c r="B221" t="n">
-        <v>132128</v>
+        <v>162911</v>
       </c>
       <c r="C221" t="s">
         <v>1700</v>
@@ -23929,7 +23929,7 @@
         <v>63765</v>
       </c>
       <c r="B222" t="n">
-        <v>132129</v>
+        <v>162912</v>
       </c>
       <c r="C222" t="s">
         <v>1706</v>
@@ -24063,7 +24063,7 @@
         <v>63765</v>
       </c>
       <c r="B224" t="n">
-        <v>132130</v>
+        <v>162913</v>
       </c>
       <c r="C224" t="s">
         <v>1720</v>
@@ -24317,7 +24317,7 @@
         <v>63765</v>
       </c>
       <c r="B228" t="n">
-        <v>132131</v>
+        <v>162914</v>
       </c>
       <c r="C228" t="s">
         <v>1747</v>
@@ -24382,7 +24382,7 @@
         <v>63765</v>
       </c>
       <c r="B229" t="n">
-        <v>132132</v>
+        <v>162915</v>
       </c>
       <c r="C229" t="s">
         <v>1753</v>
@@ -24439,7 +24439,7 @@
         <v>63765</v>
       </c>
       <c r="B230" t="n">
-        <v>132133</v>
+        <v>162916</v>
       </c>
       <c r="C230" t="s">
         <v>1759</v>
@@ -24500,7 +24500,7 @@
         <v>63765</v>
       </c>
       <c r="B231" t="n">
-        <v>132134</v>
+        <v>162917</v>
       </c>
       <c r="C231" t="s">
         <v>1764</v>
@@ -24630,7 +24630,7 @@
         <v>63765</v>
       </c>
       <c r="B233" t="n">
-        <v>132135</v>
+        <v>162918</v>
       </c>
       <c r="C233" t="s">
         <v>1779</v>
@@ -24697,7 +24697,7 @@
         <v>63765</v>
       </c>
       <c r="B234" t="n">
-        <v>132136</v>
+        <v>162919</v>
       </c>
       <c r="C234" t="s">
         <v>1786</v>
@@ -24758,7 +24758,7 @@
         <v>63765</v>
       </c>
       <c r="B235" t="n">
-        <v>132137</v>
+        <v>162920</v>
       </c>
       <c r="C235" t="s">
         <v>1792</v>
@@ -25075,7 +25075,7 @@
         <v>63765</v>
       </c>
       <c r="B240" t="n">
-        <v>132138</v>
+        <v>162921</v>
       </c>
       <c r="C240" t="s">
         <v>1824</v>
@@ -25142,7 +25142,7 @@
         <v>63765</v>
       </c>
       <c r="B241" t="n">
-        <v>132139</v>
+        <v>162922</v>
       </c>
       <c r="C241" t="s">
         <v>1830</v>
@@ -25207,7 +25207,7 @@
         <v>63765</v>
       </c>
       <c r="B242" t="n">
-        <v>132140</v>
+        <v>162923</v>
       </c>
       <c r="C242" t="s">
         <v>1837</v>
@@ -25268,7 +25268,7 @@
         <v>63765</v>
       </c>
       <c r="B243" t="n">
-        <v>132141</v>
+        <v>162924</v>
       </c>
       <c r="C243" t="s">
         <v>1843</v>
@@ -25335,7 +25335,7 @@
         <v>63765</v>
       </c>
       <c r="B244" t="n">
-        <v>132142</v>
+        <v>162925</v>
       </c>
       <c r="C244" t="s">
         <v>1849</v>
@@ -25534,7 +25534,7 @@
         <v>63765</v>
       </c>
       <c r="B247" t="n">
-        <v>132143</v>
+        <v>162926</v>
       </c>
       <c r="C247" t="s">
         <v>1871</v>
@@ -25666,7 +25666,7 @@
         <v>63765</v>
       </c>
       <c r="B249" t="n">
-        <v>132144</v>
+        <v>162927</v>
       </c>
       <c r="C249" t="s">
         <v>1886</v>
@@ -25800,7 +25800,7 @@
         <v>63765</v>
       </c>
       <c r="B251" t="n">
-        <v>132145</v>
+        <v>162928</v>
       </c>
       <c r="C251" t="s">
         <v>1900</v>
@@ -25867,7 +25867,7 @@
         <v>63765</v>
       </c>
       <c r="B252" t="n">
-        <v>132146</v>
+        <v>162929</v>
       </c>
       <c r="C252" t="s">
         <v>1907</v>
@@ -25932,7 +25932,7 @@
         <v>63765</v>
       </c>
       <c r="B253" t="n">
-        <v>132147</v>
+        <v>162930</v>
       </c>
       <c r="C253" t="s">
         <v>1913</v>
@@ -25997,7 +25997,7 @@
         <v>63765</v>
       </c>
       <c r="B254" t="n">
-        <v>132148</v>
+        <v>162931</v>
       </c>
       <c r="C254" t="s">
         <v>1919</v>
@@ -26064,7 +26064,7 @@
         <v>63765</v>
       </c>
       <c r="B255" t="n">
-        <v>132149</v>
+        <v>162932</v>
       </c>
       <c r="C255" t="s">
         <v>1926</v>
@@ -26330,7 +26330,7 @@
         <v>63765</v>
       </c>
       <c r="B259" t="n">
-        <v>132150</v>
+        <v>162933</v>
       </c>
       <c r="C259" t="s">
         <v>1953</v>
@@ -26387,7 +26387,7 @@
         <v>63765</v>
       </c>
       <c r="B260" t="n">
-        <v>132151</v>
+        <v>162934</v>
       </c>
       <c r="C260" t="s">
         <v>1959</v>
@@ -26454,7 +26454,7 @@
         <v>63765</v>
       </c>
       <c r="B261" t="n">
-        <v>132152</v>
+        <v>162935</v>
       </c>
       <c r="C261" t="s">
         <v>1966</v>
@@ -26515,7 +26515,7 @@
         <v>63765</v>
       </c>
       <c r="B262" t="n">
-        <v>132153</v>
+        <v>162936</v>
       </c>
       <c r="C262" t="s">
         <v>1972</v>
@@ -26643,7 +26643,7 @@
         <v>63765</v>
       </c>
       <c r="B264" t="n">
-        <v>132154</v>
+        <v>162937</v>
       </c>
       <c r="C264" t="s">
         <v>1984</v>
@@ -26704,7 +26704,7 @@
         <v>63765</v>
       </c>
       <c r="B265" t="n">
-        <v>132155</v>
+        <v>162938</v>
       </c>
       <c r="C265" t="s">
         <v>1991</v>
@@ -26769,7 +26769,7 @@
         <v>63765</v>
       </c>
       <c r="B266" t="n">
-        <v>132156</v>
+        <v>162939</v>
       </c>
       <c r="C266" t="s">
         <v>1997</v>
@@ -26897,7 +26897,7 @@
         <v>63765</v>
       </c>
       <c r="B268" t="n">
-        <v>132157</v>
+        <v>162940</v>
       </c>
       <c r="C268" t="s">
         <v>2010</v>
@@ -26964,7 +26964,7 @@
         <v>63765</v>
       </c>
       <c r="B269" t="n">
-        <v>132158</v>
+        <v>162941</v>
       </c>
       <c r="C269" t="s">
         <v>2017</v>
@@ -27031,7 +27031,7 @@
         <v>63765</v>
       </c>
       <c r="B270" t="n">
-        <v>132159</v>
+        <v>162942</v>
       </c>
       <c r="C270" t="s">
         <v>2024</v>
@@ -27096,7 +27096,7 @@
         <v>63765</v>
       </c>
       <c r="B271" t="n">
-        <v>132160</v>
+        <v>162943</v>
       </c>
       <c r="C271" t="s">
         <v>2030</v>
@@ -27157,7 +27157,7 @@
         <v>63765</v>
       </c>
       <c r="B272" t="n">
-        <v>132161</v>
+        <v>162944</v>
       </c>
       <c r="C272" t="s">
         <v>2036</v>
@@ -27350,7 +27350,7 @@
         <v>63765</v>
       </c>
       <c r="B275" t="n">
-        <v>132162</v>
+        <v>162945</v>
       </c>
       <c r="C275" t="s">
         <v>2057</v>
@@ -27417,7 +27417,7 @@
         <v>63765</v>
       </c>
       <c r="B276" t="n">
-        <v>132163</v>
+        <v>162946</v>
       </c>
       <c r="C276" t="s">
         <v>2064</v>
@@ -27482,7 +27482,7 @@
         <v>63765</v>
       </c>
       <c r="B277" t="n">
-        <v>132164</v>
+        <v>162947</v>
       </c>
       <c r="C277" t="s">
         <v>2070</v>
@@ -27549,7 +27549,7 @@
         <v>63765</v>
       </c>
       <c r="B278" t="n">
-        <v>132165</v>
+        <v>162948</v>
       </c>
       <c r="C278" t="s">
         <v>2077</v>
@@ -27679,7 +27679,7 @@
         <v>63765</v>
       </c>
       <c r="B280" t="n">
-        <v>132166</v>
+        <v>162949</v>
       </c>
       <c r="C280" t="s">
         <v>2094</v>
@@ -27740,7 +27740,7 @@
         <v>63765</v>
       </c>
       <c r="B281" t="n">
-        <v>132167</v>
+        <v>162950</v>
       </c>
       <c r="C281" t="s">
         <v>2099</v>
@@ -27878,7 +27878,7 @@
         <v>63765</v>
       </c>
       <c r="B283" t="n">
-        <v>132168</v>
+        <v>162951</v>
       </c>
       <c r="C283" t="s">
         <v>2115</v>
@@ -27945,7 +27945,7 @@
         <v>63765</v>
       </c>
       <c r="B284" t="n">
-        <v>132169</v>
+        <v>162952</v>
       </c>
       <c r="C284" t="s">
         <v>2122</v>
@@ -28067,7 +28067,7 @@
         <v>63765</v>
       </c>
       <c r="B286" t="n">
-        <v>132170</v>
+        <v>162953</v>
       </c>
       <c r="C286" t="s">
         <v>2136</v>
@@ -28193,7 +28193,7 @@
         <v>63765</v>
       </c>
       <c r="B288" t="n">
-        <v>132171</v>
+        <v>162954</v>
       </c>
       <c r="C288" t="s">
         <v>2149</v>
@@ -28254,7 +28254,7 @@
         <v>63765</v>
       </c>
       <c r="B289" t="n">
-        <v>132172</v>
+        <v>162955</v>
       </c>
       <c r="C289" t="s">
         <v>2154</v>
@@ -28319,7 +28319,7 @@
         <v>63765</v>
       </c>
       <c r="B290" t="n">
-        <v>132173</v>
+        <v>162956</v>
       </c>
       <c r="C290" t="s">
         <v>2160</v>
@@ -28386,7 +28386,7 @@
         <v>63765</v>
       </c>
       <c r="B291" t="n">
-        <v>132174</v>
+        <v>162957</v>
       </c>
       <c r="C291" t="s">
         <v>2167</v>
@@ -28447,7 +28447,7 @@
         <v>63765</v>
       </c>
       <c r="B292" t="n">
-        <v>132175</v>
+        <v>162958</v>
       </c>
       <c r="C292" t="s">
         <v>2172</v>
@@ -28577,7 +28577,7 @@
         <v>63765</v>
       </c>
       <c r="B294" t="n">
-        <v>132176</v>
+        <v>162959</v>
       </c>
       <c r="C294" t="s">
         <v>2188</v>
@@ -28644,7 +28644,7 @@
         <v>63765</v>
       </c>
       <c r="B295" t="n">
-        <v>132177</v>
+        <v>162960</v>
       </c>
       <c r="C295" t="s">
         <v>2194</v>
@@ -28705,7 +28705,7 @@
         <v>63765</v>
       </c>
       <c r="B296" t="n">
-        <v>132178</v>
+        <v>162961</v>
       </c>
       <c r="C296" t="s">
         <v>2201</v>
@@ -28770,7 +28770,7 @@
         <v>63765</v>
       </c>
       <c r="B297" t="n">
-        <v>132179</v>
+        <v>162962</v>
       </c>
       <c r="C297" t="s">
         <v>2209</v>
@@ -28837,7 +28837,7 @@
         <v>63765</v>
       </c>
       <c r="B298" t="n">
-        <v>132180</v>
+        <v>162963</v>
       </c>
       <c r="C298" t="s">
         <v>2215</v>
@@ -28904,7 +28904,7 @@
         <v>63765</v>
       </c>
       <c r="B299" t="n">
-        <v>132181</v>
+        <v>162964</v>
       </c>
       <c r="C299" t="s">
         <v>2221</v>
@@ -28965,7 +28965,7 @@
         <v>63765</v>
       </c>
       <c r="B300" t="n">
-        <v>132182</v>
+        <v>162965</v>
       </c>
       <c r="C300" t="s">
         <v>2227</v>
@@ -29087,7 +29087,7 @@
         <v>63765</v>
       </c>
       <c r="B302" t="n">
-        <v>132183</v>
+        <v>162966</v>
       </c>
       <c r="C302" t="s">
         <v>2240</v>
@@ -29223,7 +29223,7 @@
         <v>63765</v>
       </c>
       <c r="B304" t="n">
-        <v>132184</v>
+        <v>162967</v>
       </c>
       <c r="C304" t="s">
         <v>2256</v>
@@ -29290,7 +29290,7 @@
         <v>63765</v>
       </c>
       <c r="B305" t="n">
-        <v>132185</v>
+        <v>162968</v>
       </c>
       <c r="C305" t="s">
         <v>2262</v>
@@ -29355,7 +29355,7 @@
         <v>63765</v>
       </c>
       <c r="B306" t="n">
-        <v>132186</v>
+        <v>162969</v>
       </c>
       <c r="C306" t="s">
         <v>2268</v>
@@ -29546,7 +29546,7 @@
         <v>63765</v>
       </c>
       <c r="B309" t="n">
-        <v>132187</v>
+        <v>162970</v>
       </c>
       <c r="C309" t="s">
         <v>2287</v>
@@ -29613,7 +29613,7 @@
         <v>63765</v>
       </c>
       <c r="B310" t="n">
-        <v>132188</v>
+        <v>162971</v>
       </c>
       <c r="C310" t="s">
         <v>2294</v>
@@ -29680,7 +29680,7 @@
         <v>63765</v>
       </c>
       <c r="B311" t="n">
-        <v>132189</v>
+        <v>162972</v>
       </c>
       <c r="C311" t="s">
         <v>2301</v>
@@ -29745,7 +29745,7 @@
         <v>63765</v>
       </c>
       <c r="B312" t="n">
-        <v>132190</v>
+        <v>162973</v>
       </c>
       <c r="C312" t="s">
         <v>2308</v>
@@ -29812,7 +29812,7 @@
         <v>63765</v>
       </c>
       <c r="B313" t="n">
-        <v>132191</v>
+        <v>162974</v>
       </c>
       <c r="C313" t="s">
         <v>2314</v>
@@ -29879,7 +29879,7 @@
         <v>63765</v>
       </c>
       <c r="B314" t="n">
-        <v>132192</v>
+        <v>162975</v>
       </c>
       <c r="C314" t="s">
         <v>2321</v>
@@ -29946,7 +29946,7 @@
         <v>63765</v>
       </c>
       <c r="B315" t="n">
-        <v>132193</v>
+        <v>162976</v>
       </c>
       <c r="C315" t="s">
         <v>2327</v>
@@ -30007,7 +30007,7 @@
         <v>63765</v>
       </c>
       <c r="B316" t="n">
-        <v>132194</v>
+        <v>162977</v>
       </c>
       <c r="C316" t="s">
         <v>2334</v>
@@ -30064,7 +30064,7 @@
         <v>63765</v>
       </c>
       <c r="B317" t="n">
-        <v>132195</v>
+        <v>162978</v>
       </c>
       <c r="C317" t="s">
         <v>2341</v>
@@ -30131,7 +30131,7 @@
         <v>63765</v>
       </c>
       <c r="B318" t="n">
-        <v>132196</v>
+        <v>162979</v>
       </c>
       <c r="C318" t="s">
         <v>2348</v>
@@ -30263,7 +30263,7 @@
         <v>63765</v>
       </c>
       <c r="B320" t="n">
-        <v>132197</v>
+        <v>162980</v>
       </c>
       <c r="C320" t="s">
         <v>2361</v>
@@ -30330,7 +30330,7 @@
         <v>63765</v>
       </c>
       <c r="B321" t="n">
-        <v>132198</v>
+        <v>162981</v>
       </c>
       <c r="C321" t="s">
         <v>2368</v>
@@ -30462,7 +30462,7 @@
         <v>63765</v>
       </c>
       <c r="B323" t="n">
-        <v>132199</v>
+        <v>162982</v>
       </c>
       <c r="C323" t="s">
         <v>2381</v>
@@ -30590,7 +30590,7 @@
         <v>63765</v>
       </c>
       <c r="B325" t="n">
-        <v>132200</v>
+        <v>162983</v>
       </c>
       <c r="C325" t="s">
         <v>2393</v>
@@ -30718,7 +30718,7 @@
         <v>63765</v>
       </c>
       <c r="B327" t="n">
-        <v>132201</v>
+        <v>162984</v>
       </c>
       <c r="C327" t="s">
         <v>2407</v>
@@ -30785,7 +30785,7 @@
         <v>63765</v>
       </c>
       <c r="B328" t="n">
-        <v>132202</v>
+        <v>162985</v>
       </c>
       <c r="C328" t="s">
         <v>2413</v>
@@ -30850,7 +30850,7 @@
         <v>63765</v>
       </c>
       <c r="B329" t="n">
-        <v>132203</v>
+        <v>162986</v>
       </c>
       <c r="C329" t="s">
         <v>2419</v>
@@ -30911,7 +30911,7 @@
         <v>63765</v>
       </c>
       <c r="B330" t="n">
-        <v>132204</v>
+        <v>162987</v>
       </c>
       <c r="C330" t="s">
         <v>2426</v>
@@ -30978,7 +30978,7 @@
         <v>63765</v>
       </c>
       <c r="B331" t="n">
-        <v>132205</v>
+        <v>162988</v>
       </c>
       <c r="C331" t="s">
         <v>2432</v>
@@ -31108,7 +31108,7 @@
         <v>63765</v>
       </c>
       <c r="B333" t="n">
-        <v>132206</v>
+        <v>162989</v>
       </c>
       <c r="C333" t="s">
         <v>2445</v>
@@ -31173,7 +31173,7 @@
         <v>63765</v>
       </c>
       <c r="B334" t="n">
-        <v>132207</v>
+        <v>162990</v>
       </c>
       <c r="C334" t="s">
         <v>2451</v>
@@ -31234,7 +31234,7 @@
         <v>63765</v>
       </c>
       <c r="B335" t="n">
-        <v>132208</v>
+        <v>162991</v>
       </c>
       <c r="C335" t="s">
         <v>2456</v>
@@ -31291,7 +31291,7 @@
         <v>63765</v>
       </c>
       <c r="B336" t="n">
-        <v>132014</v>
+        <v>132042</v>
       </c>
       <c r="C336" t="s">
         <v>640</v>
@@ -31348,7 +31348,7 @@
         <v>63765</v>
       </c>
       <c r="B337" t="n">
-        <v>132209</v>
+        <v>162992</v>
       </c>
       <c r="C337" t="s">
         <v>2467</v>
@@ -31413,7 +31413,7 @@
         <v>63765</v>
       </c>
       <c r="B338" t="n">
-        <v>132210</v>
+        <v>162993</v>
       </c>
       <c r="C338" t="s">
         <v>2476</v>
@@ -31539,7 +31539,7 @@
         <v>63765</v>
       </c>
       <c r="B340" t="n">
-        <v>132211</v>
+        <v>162994</v>
       </c>
       <c r="C340" t="s">
         <v>2488</v>
@@ -31604,7 +31604,7 @@
         <v>63765</v>
       </c>
       <c r="B341" t="n">
-        <v>132212</v>
+        <v>162995</v>
       </c>
       <c r="C341" t="s">
         <v>2494</v>
@@ -31667,7 +31667,7 @@
         <v>63765</v>
       </c>
       <c r="B342" t="n">
-        <v>132213</v>
+        <v>162996</v>
       </c>
       <c r="C342" t="s">
         <v>2500</v>
@@ -31732,7 +31732,7 @@
         <v>63765</v>
       </c>
       <c r="B343" t="n">
-        <v>132214</v>
+        <v>162997</v>
       </c>
       <c r="C343" t="s">
         <v>2507</v>
@@ -31803,7 +31803,7 @@
         <v>63765</v>
       </c>
       <c r="B344" t="n">
-        <v>132215</v>
+        <v>162998</v>
       </c>
       <c r="C344" t="s">
         <v>2516</v>
@@ -31864,7 +31864,7 @@
         <v>63765</v>
       </c>
       <c r="B345" t="n">
-        <v>132216</v>
+        <v>162999</v>
       </c>
       <c r="C345" t="s">
         <v>2522</v>
@@ -31996,7 +31996,7 @@
         <v>63765</v>
       </c>
       <c r="B347" t="n">
-        <v>132217</v>
+        <v>163000</v>
       </c>
       <c r="C347" t="s">
         <v>2536</v>
@@ -32057,7 +32057,7 @@
         <v>63765</v>
       </c>
       <c r="B348" t="n">
-        <v>132218</v>
+        <v>163001</v>
       </c>
       <c r="C348" t="s">
         <v>2542</v>
@@ -32256,7 +32256,7 @@
         <v>63765</v>
       </c>
       <c r="B351" t="n">
-        <v>132219</v>
+        <v>163002</v>
       </c>
       <c r="C351" t="s">
         <v>2563</v>
@@ -32317,7 +32317,7 @@
         <v>63765</v>
       </c>
       <c r="B352" t="n">
-        <v>132220</v>
+        <v>163003</v>
       </c>
       <c r="C352" t="s">
         <v>2569</v>
@@ -32447,7 +32447,7 @@
         <v>63765</v>
       </c>
       <c r="B354" t="n">
-        <v>132221</v>
+        <v>163004</v>
       </c>
       <c r="C354" t="s">
         <v>2582</v>
@@ -32573,7 +32573,7 @@
         <v>63765</v>
       </c>
       <c r="B356" t="n">
-        <v>132222</v>
+        <v>163005</v>
       </c>
       <c r="C356" t="s">
         <v>2595</v>
@@ -32638,7 +32638,7 @@
         <v>63765</v>
       </c>
       <c r="B357" t="n">
-        <v>132223</v>
+        <v>163006</v>
       </c>
       <c r="C357" t="s">
         <v>2602</v>
@@ -32695,7 +32695,7 @@
         <v>63765</v>
       </c>
       <c r="B358" t="n">
-        <v>132224</v>
+        <v>163007</v>
       </c>
       <c r="C358" t="s">
         <v>2609</v>
@@ -32762,7 +32762,7 @@
         <v>63765</v>
       </c>
       <c r="B359" t="n">
-        <v>132225</v>
+        <v>163008</v>
       </c>
       <c r="C359" t="s">
         <v>2616</v>
@@ -32823,7 +32823,7 @@
         <v>63765</v>
       </c>
       <c r="B360" t="n">
-        <v>132226</v>
+        <v>163009</v>
       </c>
       <c r="C360" t="s">
         <v>2622</v>
@@ -32890,7 +32890,7 @@
         <v>63765</v>
       </c>
       <c r="B361" t="n">
-        <v>132227</v>
+        <v>163010</v>
       </c>
       <c r="C361" t="s">
         <v>2628</v>
@@ -33018,7 +33018,7 @@
         <v>63765</v>
       </c>
       <c r="B363" t="n">
-        <v>132228</v>
+        <v>163011</v>
       </c>
       <c r="C363" t="s">
         <v>2644</v>
@@ -33079,7 +33079,7 @@
         <v>63765</v>
       </c>
       <c r="B364" t="n">
-        <v>132229</v>
+        <v>163012</v>
       </c>
       <c r="C364" t="s">
         <v>2651</v>
@@ -33146,7 +33146,7 @@
         <v>63765</v>
       </c>
       <c r="B365" t="n">
-        <v>132230</v>
+        <v>163013</v>
       </c>
       <c r="C365" t="s">
         <v>2658</v>
@@ -33211,7 +33211,7 @@
         <v>63765</v>
       </c>
       <c r="B366" t="n">
-        <v>132231</v>
+        <v>163014</v>
       </c>
       <c r="C366" t="s">
         <v>2664</v>
@@ -33268,7 +33268,7 @@
         <v>63765</v>
       </c>
       <c r="B367" t="n">
-        <v>132232</v>
+        <v>163015</v>
       </c>
       <c r="C367" t="s">
         <v>2670</v>
@@ -33467,7 +33467,7 @@
         <v>63765</v>
       </c>
       <c r="B370" t="n">
-        <v>132233</v>
+        <v>163016</v>
       </c>
       <c r="C370" t="s">
         <v>2690</v>
@@ -33534,7 +33534,7 @@
         <v>63765</v>
       </c>
       <c r="B371" t="n">
-        <v>132234</v>
+        <v>163017</v>
       </c>
       <c r="C371" t="s">
         <v>2697</v>
@@ -33601,7 +33601,7 @@
         <v>63765</v>
       </c>
       <c r="B372" t="n">
-        <v>132235</v>
+        <v>163018</v>
       </c>
       <c r="C372" t="s">
         <v>2704</v>
@@ -33729,7 +33729,7 @@
         <v>63765</v>
       </c>
       <c r="B374" t="n">
-        <v>132236</v>
+        <v>163019</v>
       </c>
       <c r="C374" t="s">
         <v>2717</v>
@@ -33790,7 +33790,7 @@
         <v>63765</v>
       </c>
       <c r="B375" t="n">
-        <v>132237</v>
+        <v>163020</v>
       </c>
       <c r="C375" t="s">
         <v>2723</v>
@@ -33857,7 +33857,7 @@
         <v>63765</v>
       </c>
       <c r="B376" t="n">
-        <v>132238</v>
+        <v>163021</v>
       </c>
       <c r="C376" t="s">
         <v>2728</v>
@@ -33924,7 +33924,7 @@
         <v>63765</v>
       </c>
       <c r="B377" t="n">
-        <v>132239</v>
+        <v>163022</v>
       </c>
       <c r="C377" t="s">
         <v>2735</v>
@@ -34058,7 +34058,7 @@
         <v>63765</v>
       </c>
       <c r="B379" t="n">
-        <v>132240</v>
+        <v>163023</v>
       </c>
       <c r="C379" t="s">
         <v>2748</v>
@@ -34123,7 +34123,7 @@
         <v>63765</v>
       </c>
       <c r="B380" t="n">
-        <v>132241</v>
+        <v>163024</v>
       </c>
       <c r="C380" t="s">
         <v>2754</v>
@@ -34188,7 +34188,7 @@
         <v>63765</v>
       </c>
       <c r="B381" t="n">
-        <v>132242</v>
+        <v>163025</v>
       </c>
       <c r="C381" t="s">
         <v>2760</v>
@@ -34316,7 +34316,7 @@
         <v>63765</v>
       </c>
       <c r="B383" t="n">
-        <v>132243</v>
+        <v>163026</v>
       </c>
       <c r="C383" t="s">
         <v>2776</v>
@@ -34377,7 +34377,7 @@
         <v>63765</v>
       </c>
       <c r="B384" t="n">
-        <v>132244</v>
+        <v>163027</v>
       </c>
       <c r="C384" t="s">
         <v>2783</v>
@@ -34580,7 +34580,7 @@
         <v>63765</v>
       </c>
       <c r="B387" t="n">
-        <v>132245</v>
+        <v>163028</v>
       </c>
       <c r="C387" t="s">
         <v>2808</v>
@@ -34641,7 +34641,7 @@
         <v>63765</v>
       </c>
       <c r="B388" t="n">
-        <v>132246</v>
+        <v>163029</v>
       </c>
       <c r="C388" t="s">
         <v>2815</v>
@@ -34708,7 +34708,7 @@
         <v>63765</v>
       </c>
       <c r="B389" t="n">
-        <v>132247</v>
+        <v>163030</v>
       </c>
       <c r="C389" t="s">
         <v>2822</v>
@@ -34842,7 +34842,7 @@
         <v>63765</v>
       </c>
       <c r="B391" t="n">
-        <v>132248</v>
+        <v>163031</v>
       </c>
       <c r="C391" t="s">
         <v>2835</v>
